--- a/biology/Zoologie/Colias_johanseni/Colias_johanseni.xlsx
+++ b/biology/Zoologie/Colias_johanseni/Colias_johanseni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias johanseni est une espèce de papillons de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Colias johanseni a été décrite en 1990 par James T. Troubridge (d) et Kenelm W. Philip (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Colias johanseni a été décrite en 1990 par James T. Troubridge (d) et Kenelm W. Philip (d),.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias  johanseni se nomme Johansen's Sulphur en anglais.
 </t>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias johanseni est un papillon de taille petite à moyenne (son envergure varie de 35 à 38 mm). Les ailes du mâle sont d'une couleur jaune orangé assez terne, à large bordure marron à noire et avec une tache androconiale à la base de l'aile postérieure. Chez la femelle la bordure est tachée de jaune.
-Au revers les antérieures et les postérieures présentent une ligne de points submarginaux foncés et l'aile postérieure est verdie par une suffusion foncée[3].
+Au revers les antérieures et les postérieures présentent une ligne de points submarginaux foncés et l'aile postérieure est verdie par une suffusion foncée.
 </t>
         </is>
       </c>
@@ -605,11 +623,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias johanseni vole en juillet, en une seule génération[4].
-Plantes hôtes
-La plante hôte de sa chenille est Hedysarum mackenzii[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias johanseni vole en juillet, en une seule génération.
 </t>
         </is>
       </c>
@@ -635,16 +653,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias johanseni est uniquement présent au Canada dans les Territoires du Nord-Ouest[2].
-Biotope
-Il réside dans la steppe sèche[3].
-Protection
-Pas de statut de protection connu[3].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Hedysarum mackenzii.
 </t>
         </is>
       </c>
@@ -670,10 +690,119 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias johanseni est uniquement présent au Canada dans les Territoires du Nord-Ouest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_johanseni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_johanseni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la steppe sèche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_johanseni</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_johanseni</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection connu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_johanseni</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_johanseni</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) James T. Troubridge et Kenelm W. Philip, « A New Species of Colias (Lepidoptera: Pieridae) from Arctic Canada », The Canadian Entomologist, Ottawa, Société d'entomologie du Canada, vol. 122, no 1,‎ février 1990, p. 15-20 (ISSN 0008-347X et 1918-3240, OCLC 01553087, DOI 10.4039/ENT12215-1)</t>
         </is>
